--- a/Put Portfolios/Weekly_OnePointFive.xlsx
+++ b/Put Portfolios/Weekly_OnePointFive.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>701356.762017641</v>
+        <v>650863.4871826086</v>
       </c>
       <c r="E2" t="n">
-        <v>-288079.968112682</v>
+        <v>-335623.7074410405</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>631178.976370548</v>
+        <v>584640.2962321137</v>
       </c>
       <c r="E3" t="n">
-        <v>-287583.7016076091</v>
+        <v>-333340.8432093374</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>561590.6199536097</v>
+        <v>519836.4398363263</v>
       </c>
       <c r="E4" t="n">
-        <v>-286498.0058723815</v>
+        <v>-329638.6444229271</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>493048.7232654716</v>
+        <v>456966.9534278983</v>
       </c>
       <c r="E5" t="n">
-        <v>-284365.8504083535</v>
+        <v>-324002.0756491572</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>426184.5258437395</v>
+        <v>396581.832707184</v>
       </c>
       <c r="E6" t="n">
-        <v>-280555.9956779197</v>
+        <v>-315881.1411876737</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>361777.3301393629</v>
+        <v>339224.1823903473</v>
       </c>
       <c r="E7" t="n">
-        <v>-274289.1392301304</v>
+        <v>-304732.7363223124</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>300689.9124145763</v>
+        <v>285387.6709522555</v>
       </c>
       <c r="E8" t="n">
-        <v>-264702.5048027511</v>
+        <v>-290063.1925782064</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>243776.597683868</v>
+        <v>235479.6799192216</v>
       </c>
       <c r="E9" t="n">
-        <v>-250941.7673812935</v>
+        <v>-271465.1284290425</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>191783.9399166076</v>
+        <v>189794.7847070808</v>
       </c>
       <c r="E10" t="n">
-        <v>-232260.3729963879</v>
+        <v>-248643.9684589854</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>145265.6691316353</v>
+        <v>148500.8332236</v>
       </c>
       <c r="E11" t="n">
-        <v>-208104.5916291944</v>
+        <v>-221431.8647602684</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>104528.3539160818</v>
+        <v>111637.5749940472</v>
       </c>
       <c r="E12" t="n">
-        <v>-178167.8546925819</v>
+        <v>-189789.0678076232</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69614.99282808912</v>
+        <v>79126.00646850033</v>
       </c>
       <c r="E13" t="n">
-        <v>-142407.1636284087</v>
+        <v>-153794.5811509723</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>40324.24402601069</v>
+        <v>50785.54440606973</v>
       </c>
       <c r="E14" t="n">
-        <v>-101023.8602783212</v>
+        <v>-113628.988031205</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>16256.11404334474</v>
+        <v>26355.80280941712</v>
       </c>
       <c r="E15" t="n">
-        <v>-54417.93810882118</v>
+        <v>-69552.6744456598</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-3128.126810883574</v>
+        <v>5519.973762853325</v>
       </c>
       <c r="E16" t="n">
-        <v>-3128.126810883574</v>
+        <v>-21882.44831002572</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-18443.57139314169</v>
+        <v>-12072.61204373687</v>
       </c>
       <c r="E17" t="n">
-        <v>52230.48075902423</v>
+        <v>29031.02106558194</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-30325.84566261111</v>
+        <v>-26786.44462601388</v>
       </c>
       <c r="E18" t="n">
-        <v>111022.2586417207</v>
+        <v>82823.24366550279</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-39387.15400252705</v>
+        <v>-38983.29514938649</v>
       </c>
       <c r="E19" t="n">
-        <v>172635.0024539707</v>
+        <v>139132.4483243281</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-46186.08080820196</v>
+        <v>-49009.54565294661</v>
       </c>
       <c r="E20" t="n">
-        <v>236510.1278004617</v>
+        <v>197612.2530029658</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-51210.43247986714</v>
+        <v>-57187.29431586179</v>
       </c>
       <c r="E21" t="n">
-        <v>302159.8282809625</v>
+        <v>257940.5595222484</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-54870.85295175917</v>
+        <v>-63808.83854585071</v>
       </c>
       <c r="E22" t="n">
-        <v>369173.4599612364</v>
+        <v>319825.0704744574</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-57502.32680623732</v>
+        <v>-69133.97384683558</v>
       </c>
       <c r="E23" t="n">
-        <v>437216.0382589241</v>
+        <v>383005.9903556703</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-59370.73726635712</v>
+        <v>-73389.49146940511</v>
       </c>
       <c r="E24" t="n">
-        <v>506021.6799509703</v>
+        <v>447256.5279152987</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-60682.08948776855</v>
+        <v>-76770.27929848063</v>
       </c>
       <c r="E25" t="n">
-        <v>575384.3798817247</v>
+        <v>512381.7952684211</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61592.60841816579</v>
+        <v>-79441.49844061692</v>
       </c>
       <c r="E26" t="n">
-        <v>645147.9131034934</v>
+        <v>578216.6313084826</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-62218.51547697486</v>
+        <v>-81541.39862857957</v>
       </c>
       <c r="E27" t="n">
-        <v>715196.0581968502</v>
+        <v>644622.7863027179</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>672158.1765313961</v>
+        <v>673330.9735207614</v>
       </c>
       <c r="E2" t="n">
-        <v>-337763.786106801</v>
+        <v>-386061.7477188047</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>627236.5281414089</v>
+        <v>632575.3056730659</v>
       </c>
       <c r="E3" t="n">
-        <v>-336252.2408122733</v>
+        <v>-383576.8963322322</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>582885.5246964063</v>
+        <v>592467.8371254243</v>
       </c>
       <c r="E4" t="n">
-        <v>-334170.0505727612</v>
+        <v>-380443.8456456058</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>539241.6125087591</v>
+        <v>553104.8654683344</v>
       </c>
       <c r="E5" t="n">
-        <v>-331380.7690758936</v>
+        <v>-376566.2980684277</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>496450.8578060769</v>
+        <v>514582.375016051</v>
       </c>
       <c r="E6" t="n">
-        <v>-327738.330094061</v>
+        <v>-371848.2692864431</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>454664.638201541</v>
+        <v>476993.8134459599</v>
       </c>
       <c r="E7" t="n">
-        <v>-323091.356014082</v>
+        <v>-366196.3116222663</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>414034.8671073825</v>
+        <v>440427.9988892117</v>
       </c>
       <c r="E8" t="n">
-        <v>-317287.9334237258</v>
+        <v>-359521.6069447464</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>374709.0813530489</v>
+        <v>404967.2418624818</v>
       </c>
       <c r="E9" t="n">
-        <v>-310180.5254935445</v>
+        <v>-351741.8447372083</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>336825.7135257049</v>
+        <v>370685.7452515414</v>
       </c>
       <c r="E10" t="n">
-        <v>-301630.6996363737</v>
+        <v>-342782.8221138808</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>300509.8317345958</v>
+        <v>337648.3235168048</v>
       </c>
       <c r="E11" t="n">
-        <v>-291513.387742968</v>
+        <v>-332579.7246143493</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>265869.569347762</v>
+        <v>305909.4611922852</v>
       </c>
       <c r="E12" t="n">
-        <v>-279720.456445287</v>
+        <v>-321078.067704601</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>232993.3954510512</v>
+        <v>275512.7119094655</v>
       </c>
       <c r="E13" t="n">
-        <v>-266163.436657483</v>
+        <v>-308234.2977531526</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>201948.3024707922</v>
+        <v>246490.4234305817</v>
       </c>
       <c r="E14" t="n">
-        <v>-250775.3359532272</v>
+        <v>-294016.0669977684</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>172778.918122618</v>
+        <v>218863.7619250052</v>
       </c>
       <c r="E15" t="n">
-        <v>-233511.5266168866</v>
+        <v>-278402.2092690769</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>145507.4900007498</v>
+        <v>192643.0000185419</v>
       </c>
       <c r="E16" t="n">
-        <v>-214349.7610542401</v>
+        <v>-261382.4519412722</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>120134.6458561696</v>
+        <v>167828.0277761018</v>
       </c>
       <c r="E17" t="n">
-        <v>-193289.4115143054</v>
+        <v>-242956.9049494442</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>96640.80203743959</v>
+        <v>144409.0433539189</v>
       </c>
       <c r="E18" t="n">
-        <v>-170350.0616485206</v>
+        <v>-223135.3701373592</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>74988.07615114773</v>
+        <v>122367.3800890443</v>
       </c>
       <c r="E19" t="n">
-        <v>-145569.5938502976</v>
+        <v>-201936.5141679657</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>55122.55604549187</v>
+        <v>101676.4287541039</v>
       </c>
       <c r="E20" t="n">
-        <v>-119001.9202714387</v>
+        <v>-179386.9462686381</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>36976.78334991106</v>
+        <v>82302.61707717703</v>
       </c>
       <c r="E21" t="n">
-        <v>-90714.49928250466</v>
+        <v>-155520.238711297</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>20472.32336267251</v>
+        <v>64206.41293508763</v>
       </c>
       <c r="E22" t="n">
-        <v>-60785.76558522841</v>
+        <v>-130375.9236191184</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5522.311462240156</v>
+        <v>47343.32246084004</v>
       </c>
       <c r="E23" t="n">
-        <v>-29302.58380114595</v>
+        <v>-103998.494859098</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-7966.112907353265</v>
+        <v>31664.85932142164</v>
       </c>
       <c r="E24" t="n">
-        <v>3642.185513775437</v>
+        <v>-76436.43876424836</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-20089.5521968206</v>
+        <v>17119.46635344421</v>
       </c>
       <c r="E25" t="n">
-        <v>37951.93990882291</v>
+        <v>-47741.3124979578</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30946.32367406259</v>
+        <v>3653.3753934573</v>
       </c>
       <c r="E26" t="n">
-        <v>73528.36211609573</v>
+        <v>-17966.8842236767</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-40634.6877840337</v>
+        <v>-8788.604627934286</v>
       </c>
       <c r="E27" t="n">
-        <v>110273.1916906394</v>
+        <v>12831.65498919971</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-49251.34447379645</v>
+        <v>-20262.37752565523</v>
       </c>
       <c r="E28" t="n">
-        <v>148089.7286853915</v>
+        <v>44598.40132574679</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-56890.19694972313</v>
+        <v>-30823.93063493883</v>
       </c>
       <c r="E29" t="n">
-        <v>186884.0698939796</v>
+        <v>77277.36745073117</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-63641.37218855127</v>
+        <v>-40528.7868685981</v>
       </c>
       <c r="E30" t="n">
-        <v>226566.0883396663</v>
+        <v>110813.0304513399</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-69590.48013179196</v>
+        <v>-49431.53627117059</v>
       </c>
       <c r="E31" t="n">
-        <v>267050.1740809404</v>
+        <v>145150.8002830354</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-74818.0885661872</v>
+        <v>-57585.4436346151</v>
       </c>
       <c r="E32" t="n">
-        <v>308255.75933106</v>
+        <v>180237.4121538589</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-79399.38787388967</v>
+        <v>-65042.12752490039</v>
       </c>
       <c r="E33" t="n">
-        <v>350107.6537078723</v>
+        <v>216021.2474978416</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-83404.01874124182</v>
+        <v>-71851.3052331088</v>
       </c>
       <c r="E34" t="n">
-        <v>392536.2165250349</v>
+        <v>252452.5890239012</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-86896.03616692006</v>
+        <v>-78060.59765224076</v>
       </c>
       <c r="E35" t="n">
-        <v>435477.3927838715</v>
+        <v>289483.8158390373</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-89933.98435933505</v>
+        <v>-83715.3878365335</v>
       </c>
       <c r="E36" t="n">
-        <v>478872.6382759714</v>
+        <v>327069.5448890126</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-92571.05905134245</v>
+        <v>-88858.72697203014</v>
       </c>
       <c r="E37" t="n">
-        <v>522668.7572684789</v>
+        <v>365166.7249877839</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-94855.33612702522</v>
+        <v>-93531.28162806781</v>
       </c>
       <c r="E38" t="n">
-        <v>566817.6738773108</v>
+        <v>403734.6895660143</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-96830.04803901145</v>
+        <v>-97771.31642751006</v>
       </c>
       <c r="E39" t="n">
-        <v>611276.1556498394</v>
+        <v>442735.17400084</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-98533.89213078706</v>
+        <v>-101614.7066327444</v>
       </c>
       <c r="E40" t="n">
-        <v>656005.5052425787</v>
+        <v>482132.3030298736</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-100001.3575442347</v>
+        <v>-105094.9755641006</v>
       </c>
       <c r="E41" t="n">
-        <v>700971.2335136458</v>
+        <v>521892.5533327856</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-101263.0598024772</v>
+        <v>-108243.3522222215</v>
       </c>
       <c r="E42" t="n">
-        <v>746142.724939918</v>
+        <v>561984.6959089325</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-102346.0743566837</v>
+        <v>-111088.8449556423</v>
       </c>
       <c r="E43" t="n">
-        <v>791492.9040702262</v>
+        <v>602379.7224097798</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-103274.2623421553</v>
+        <v>-113658.3274835201</v>
       </c>
       <c r="E44" t="n">
-        <v>836997.9097692696</v>
+        <v>643050.75911617</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-104068.5834919651</v>
+        <v>-115976.6340388738</v>
       </c>
       <c r="E45" t="n">
-        <v>882636.7823039746</v>
+        <v>683972.9717950843</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-104747.3926080234</v>
+        <v>-118066.6608311174</v>
       </c>
       <c r="E46" t="n">
-        <v>928391.1668724311</v>
+        <v>725123.4642371088</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-105326.7172018683</v>
+        <v>-119949.4714318866</v>
       </c>
       <c r="E47" t="n">
-        <v>974245.0359631011</v>
+        <v>766481.1728706075</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-105820.5149094145</v>
+        <v>-121644.4040613969</v>
       </c>
       <c r="E48" t="n">
-        <v>1020184.43194007</v>
+        <v>808026.7594753653</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-106240.9100777587</v>
+        <v>-123169.1790917361</v>
       </c>
       <c r="E49" t="n">
-        <v>1066197.23045624</v>
+        <v>849742.503679294</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-106598.4095419625</v>
+        <v>-124540.0053880393</v>
       </c>
       <c r="E50" t="n">
-        <v>1112272.924676551</v>
+        <v>891612.1966172588</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-106902.0980797724</v>
+        <v>-125771.6843787859</v>
       </c>
       <c r="E51" t="n">
-        <v>1158402.429823256</v>
+        <v>933621.0368607802</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-107159.8143756701</v>
+        <v>-126877.7109838903</v>
       </c>
       <c r="E52" t="n">
-        <v>1204577.907211873</v>
+        <v>975755.5294899438</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-107378.3085641034</v>
+        <v>-127870.3707355338</v>
       </c>
       <c r="E53" t="n">
-        <v>1250792.606707955</v>
+        <v>1018003.388972569</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-107563.3825747331</v>
+        <v>-128760.8326041029</v>
       </c>
       <c r="E54" t="n">
-        <v>1297040.72638184</v>
+        <v>1060353.446338267</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-107720.0145872759</v>
+        <v>-129559.2371925308</v>
       </c>
       <c r="E55" t="n">
-        <v>1343317.288053812</v>
+        <v>1102795.560984107</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-107852.4689349793</v>
+        <v>-130274.7800892571</v>
       </c>
       <c r="E56" t="n">
-        <v>1389618.027390623</v>
+        <v>1145320.537321649</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-107964.3927866458</v>
+        <v>-130915.7902755432</v>
       </c>
       <c r="E57" t="n">
-        <v>1435939.297223472</v>
+        <v>1187920.046369631</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-108058.9008980405</v>
+        <v>-131489.8035693134</v>
       </c>
       <c r="E58" t="n">
-        <v>1482277.982796592</v>
+        <v>1230586.552310129</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-108138.6496632422</v>
+        <v>-132003.6311574754</v>
       </c>
       <c r="E59" t="n">
-        <v>1528631.427715905</v>
+        <v>1273313.243956235</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-108205.9016220842</v>
+        <v>-132463.4233239187</v>
       </c>
       <c r="E60" t="n">
-        <v>1574997.369441577</v>
+        <v>1316093.971024059</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-108262.5814968881</v>
+        <v>-132874.7285231359</v>
       </c>
       <c r="E61" t="n">
-        <v>1621373.883251289</v>
+        <v>1358923.18505911</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-108310.3247446319</v>
+        <v>-133242.5479814719</v>
       </c>
       <c r="E62" t="n">
-        <v>1667759.33368806</v>
+        <v>1401795.884835042</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1008091.358025549</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-298104.4739460649</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>971834.6610046054</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-297803.7729269414</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>935581.0668654738</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-297499.9690260056</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>899333.2077705312</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-297190.4300808805</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>863095.4357428097</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-296870.8040685344</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>826874.6110700896</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-296534.2307011868</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>790681.0785803678</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-296170.365150841</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>754529.8053656402</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-295764.240325501</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>718441.624338261</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-295295.0233128129</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>682444.4995885474</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-294734.7500224588</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>646574.7066815721</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-294047.1448893665</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>610877.8081628736</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-293186.6453679975</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>575409.3046995491</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-292097.7507912543</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>540234.8565950862</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-290714.8008556498</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>505429.9978602084</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-288962.26155046</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>471079.3026191203</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-286755.5587514804</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>437275.0069889462</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-284002.456341587</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>404115.1336339198</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-280604.9316565459</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>371701.2060366531</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-276461.461213745</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>340135.6710341498</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-271469.5981761806</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>309519.1685205591</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-265528.7026497039</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>279947.7951297622</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-258542.6780004332</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>251510.5043878754</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-250422.5707022524</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>224286.7707548089</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-241088.9062952515</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>198344.6215628782</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-230473.6574471146</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>173739.112026465</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-218521.7689434602</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>150511.2872668787</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-205192.1956629788</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>128687.6444699224</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-190458.4404198676</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>108280.0801956632</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-174308.6066540593</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>89286.28419935904</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-156745.0046102958</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>71690.52294450975</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-137783.3678250776</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>55464.74370773072</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-117451.749021789</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>40569.92366299452</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-95789.17102645765</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>26957.58704339551</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-72844.1096059891</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>14571.41658141749</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-48672.88202789954</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3348.8919389884</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-23338.00863026107</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6777.103269603981</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3093.394201214117</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-15876.75396329977</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>30551.1415475859</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-24021.9028563358</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>58963.39069461744</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-31284.78310921065</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>88257.90848181014</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-37736.911052038</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>118363.1785790504</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-43448.14684416095</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>149209.340826995</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-48485.92345373232</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>180728.9622574912</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-52914.63829924783</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>212857.6454520432</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-56795.1972852945</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>245534.4845060641</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-60184.69770157521</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>278702.382129851</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-63136.23439811284</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>312308.2434733809</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-65698.81262909486</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>346303.0632824664</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-67917.35078816865</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>380641.9231634603</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-69832.75675492434</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>415283.915236772</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-71482.06256265072</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>450192.0074691133</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-72898.60342602247</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>485332.8646458092</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-74112.22870065283</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>520676.6374112463</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-75149.53397432533</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>556196.7301776415</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-76034.10512490073</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>591869.5570671336</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-76786.7667566608</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>627674.2934754411</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-77425.82889844624</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>663592.6293737232</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-77967.32718304175</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>699608.5291291953</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-78425.25291094334</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>735708.0014413613</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-78811.77042669438</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>771878.8819656777</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-79137.42010429181</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>808110.6303281479</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-79411.3059574654</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>844394.1425150417</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-79641.26747257364</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>880721.5790400011</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-79834.03572044634</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>917086.208832196</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-79995.37415382874</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>953482.2684388813</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-80130.20475441433</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>989904.8358783633</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-80242.7203725276</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1026349.718300317</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-80336.48421708313</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1062813.35249583</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-80414.51751597048</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1099292.71723701</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-80479.37638854129</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1135785.256404507</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-80533.21896197626</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1172288.811871139</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>472968.6092710951</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-441890.1019916956</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>422674.5390421334</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-432661.8097442232</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>374665.6013818313</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-421148.3849280913</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>329176.2199533706</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-407115.4038801181</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>286395.3247766896</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-390373.9365803651</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>246460.270117849</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-370786.6287627716</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>209454.328572114</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-348270.2078320726</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>175407.4319899025</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-322794.7419378501</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>144299.5964909775</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-294380.214960341</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>116066.350697838</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-263091.0982770466</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>90605.46581829384</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-229029.6206801567</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>67784.33806533647</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-192328.38595668</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>47447.47165046119</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-153142.8898951213</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>29423.63068290345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-111644.368386245</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13532.35225454658</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-68013.28433816787</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-410.3720906218443</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-22433.64620690228</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-12587.34110098707</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>24911.74725916652</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-23176.33133988449</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>73845.1194967031</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-32347.1865285439</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>124196.6267844777</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-40259.7290547074</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>175806.4467347483</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-47062.39130385462</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>228526.146962035</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52891.454529715</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>282219.4462126087</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-57870.78255549577</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>336762.480663262</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-62111.94377001582</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>392043.6819251758</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-65714.6251996346</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>447963.3629719911</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-68767.2549524847</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>504433.0956955751</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-71347.76259022299</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>561374.9505342707</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-73524.41996122702</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>618720.6556397008</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-75356.71706359675</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>676410.7210137651</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-76896.23821435786</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>734393.562339438</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-78187.51301145165</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>792624.6500187782</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-79268.82426478529</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>851065.7012418786</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-80172.96131745928</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>909683.9266656387</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-80927.91211289825</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>968451.3383466338</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-81557.49115234852</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1027344.121783617</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-82081.90330355104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1086342.072108849</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-82518.24543415771</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1145428.092454676</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-82880.94920833579</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1204587.751156932</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-83182.16924006156</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1263808.89360164</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-83432.12126045598</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1323081.30405768</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-83639.37512844686</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1382396.412666123</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-83811.10747518332</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1441747.042795821</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-83953.3185878618</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1501127.194159576</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-84071.01785869042</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1560531.857365182</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-84168.38178844769</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1619956.855911858</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-84248.88817044816</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1679398.712006292</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>449699.8129061898</v>
+        <v>357612.2089626566</v>
       </c>
       <c r="E2" t="n">
-        <v>-221496.8081642149</v>
+        <v>-279758.1445137566</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>386664.7950824011</v>
+        <v>305738.6700329768</v>
       </c>
       <c r="E3" t="n">
-        <v>-215478.6756721183</v>
+        <v>-263390.7462403944</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>326173.4596052314</v>
+        <v>256890.6931762101</v>
       </c>
       <c r="E4" t="n">
-        <v>-206916.8608334028</v>
+        <v>-243997.785894119</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>268836.97503501</v>
+        <v>211215.0589002157</v>
       </c>
       <c r="E5" t="n">
-        <v>-195200.195087739</v>
+        <v>-221432.4829670713</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>215221.4964859287</v>
+        <v>168799.2460639855</v>
       </c>
       <c r="E6" t="n">
-        <v>-179762.523320935</v>
+        <v>-195607.3586002594</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>165800.1610774104</v>
+        <v>129672.9613602975</v>
       </c>
       <c r="E7" t="n">
-        <v>-160130.7084135679</v>
+        <v>-166492.7061009053</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>120916.2605676959</v>
+        <v>93812.39172674362</v>
       </c>
       <c r="E8" t="n">
-        <v>-135961.4586073972</v>
+        <v>-134112.3385314171</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>80761.99751740538</v>
+        <v>61146.41002558191</v>
       </c>
       <c r="E9" t="n">
-        <v>-107062.5713418025</v>
+        <v>-98537.38302953678</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>45373.96040229558</v>
+        <v>31563.98122344511</v>
       </c>
       <c r="E10" t="n">
-        <v>-73397.458141027</v>
+        <v>-59878.8746286315</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>14643.58529148032</v>
+        <v>4922.099216976399</v>
       </c>
       <c r="E11" t="n">
-        <v>-35074.68293595699</v>
+        <v>-18279.81943205814</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-11661.06355845873</v>
+        <v>-18946.29552444602</v>
       </c>
       <c r="E12" t="n">
-        <v>7673.818529989223</v>
+        <v>26092.72302956151</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-33866.70757779863</v>
+        <v>-40224.83374285566</v>
       </c>
       <c r="E13" t="n">
-        <v>54521.32482653459</v>
+        <v>73055.12201419394</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52363.86777805808</v>
+        <v>-59106.95678303757</v>
       </c>
       <c r="E14" t="n">
-        <v>105077.3149421604</v>
+        <v>122413.9361770541</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-67577.11998757948</v>
+        <v>-75790.0481033766</v>
       </c>
       <c r="E15" t="n">
-        <v>158917.2130485243</v>
+        <v>173971.7820597572</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-79939.14539423263</v>
+        <v>-90470.5318184105</v>
       </c>
       <c r="E16" t="n">
-        <v>215608.3379577564</v>
+        <v>227532.2355477653</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-89870.00284282178</v>
+        <v>-103339.9394046548</v>
       </c>
       <c r="E17" t="n">
-        <v>274730.6308250525</v>
+        <v>282903.7651645631</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-97762.07351288405</v>
+        <v>-114581.8928315436</v>
       </c>
       <c r="E18" t="n">
-        <v>335891.7104708755</v>
+        <v>339902.7489407164</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-103970.4012502487</v>
+        <v>-124369.9179298345</v>
       </c>
       <c r="E19" t="n">
-        <v>398736.5330493961</v>
+        <v>398355.6610454675</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-108807.6927583564</v>
+        <v>-132865.9825410374</v>
       </c>
       <c r="E20" t="n">
-        <v>462952.3918571737</v>
+        <v>458100.5336373067</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-112543.0204663462</v>
+        <v>-140219.6465023532</v>
       </c>
       <c r="E21" t="n">
-        <v>528270.2144650691</v>
+        <v>518987.806879033</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-115403.2315779498</v>
+        <v>-146567.711624401</v>
       </c>
       <c r="E22" t="n">
-        <v>594463.1536693508</v>
+        <v>580880.6789600273</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-117576.148401919</v>
+        <v>-152034.2667449792</v>
       </c>
       <c r="E23" t="n">
-        <v>661343.3871612668</v>
+        <v>643655.0610424911</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-119214.792999919</v>
+        <v>-156731.0334274979</v>
       </c>
       <c r="E24" t="n">
-        <v>728757.892879152</v>
+        <v>707199.2315630144</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-120442.0412606119</v>
+        <v>-160757.9301628697</v>
       </c>
       <c r="E25" t="n">
-        <v>796583.7949343446</v>
+        <v>771413.2720306847</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-121355.2790748363</v>
+        <v>-164203.7857397831</v>
       </c>
       <c r="E26" t="n">
-        <v>864723.7074360054</v>
+        <v>836208.3536568135</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-122030.7797254271</v>
+        <v>-167147.1448794644</v>
       </c>
       <c r="E27" t="n">
-        <v>933101.3571012998</v>
+        <v>901505.9317201743</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-122527.6395733685</v>
+        <v>-169657.1207183572</v>
       </c>
       <c r="E28" t="n">
-        <v>1001657.647569244</v>
+        <v>967236.8930843235</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-122891.1976153025</v>
+        <v>-171794.258945288</v>
       </c>
       <c r="E29" t="n">
-        <v>1070347.239843195</v>
+        <v>1033340.692060435</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-123155.926274822</v>
+        <v>-173611.3872209587</v>
       </c>
       <c r="E30" t="n">
-        <v>1139135.661499561</v>
+        <v>1099764.500987806</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-123347.8204538499</v>
+        <v>-175154.4309171621</v>
       </c>
       <c r="E31" t="n">
-        <v>1207996.917636418</v>
+        <v>1166462.394494645</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-123486.3344714407</v>
+        <v>-176463.1822844973</v>
       </c>
       <c r="E32" t="n">
-        <v>1276911.553934713</v>
+        <v>1233394.580330352</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-123585.9267922139</v>
+        <v>-177572.0150139182</v>
       </c>
       <c r="E33" t="n">
-        <v>1345865.111929825</v>
+        <v>1300526.684803973</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-123657.2744061171</v>
+        <v>-178510.5399472473</v>
       </c>
       <c r="E34" t="n">
-        <v>1414846.914631807</v>
+        <v>1367829.097073686</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-123708.2155190349</v>
+        <v>-179304.2005703544</v>
       </c>
       <c r="E35" t="n">
-        <v>1483849.123834774</v>
+        <v>1435276.373653621</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-123744.4731778758</v>
+        <v>-179974.8090412932</v>
       </c>
       <c r="E36" t="n">
-        <v>1552866.016491818</v>
+        <v>1502846.702385724</v>
       </c>
     </row>
   </sheetData>
